--- a/Jan'2021/Daily Sales Details/18.01.2021/Bank Statement.xlsx
+++ b/Jan'2021/Daily Sales Details/18.01.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Bank Statment" sheetId="44" r:id="rId1"/>
@@ -2519,6 +2519,57 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2541,57 +2592,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5055,7 +5055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
@@ -5501,70 +5501,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="263"/>
-      <c r="J1" s="263"/>
-      <c r="K1" s="263"/>
-      <c r="L1" s="263"/>
-      <c r="M1" s="263"/>
-      <c r="N1" s="263"/>
-      <c r="O1" s="263"/>
-      <c r="P1" s="263"/>
-      <c r="Q1" s="263"/>
-      <c r="R1" s="263"/>
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
+      <c r="N1" s="253"/>
+      <c r="O1" s="253"/>
+      <c r="P1" s="253"/>
+      <c r="Q1" s="253"/>
+      <c r="R1" s="253"/>
     </row>
     <row r="2" spans="1:25" ht="18">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="254" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="264"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
-      <c r="K2" s="264"/>
-      <c r="L2" s="264"/>
-      <c r="M2" s="264"/>
-      <c r="N2" s="264"/>
-      <c r="O2" s="264"/>
-      <c r="P2" s="264"/>
-      <c r="Q2" s="264"/>
-      <c r="R2" s="264"/>
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
+      <c r="M2" s="254"/>
+      <c r="N2" s="254"/>
+      <c r="O2" s="254"/>
+      <c r="P2" s="254"/>
+      <c r="Q2" s="254"/>
+      <c r="R2" s="254"/>
     </row>
     <row r="3" spans="1:25" s="108" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="273" t="s">
+      <c r="A3" s="265" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="274"/>
-      <c r="C3" s="274"/>
-      <c r="D3" s="274"/>
-      <c r="E3" s="274"/>
-      <c r="F3" s="274"/>
-      <c r="G3" s="274"/>
-      <c r="H3" s="274"/>
-      <c r="I3" s="274"/>
-      <c r="J3" s="274"/>
-      <c r="K3" s="274"/>
-      <c r="L3" s="274"/>
-      <c r="M3" s="274"/>
-      <c r="N3" s="274"/>
-      <c r="O3" s="274"/>
-      <c r="P3" s="274"/>
-      <c r="Q3" s="274"/>
-      <c r="R3" s="275"/>
+      <c r="B3" s="266"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="266"/>
+      <c r="H3" s="266"/>
+      <c r="I3" s="266"/>
+      <c r="J3" s="266"/>
+      <c r="K3" s="266"/>
+      <c r="L3" s="266"/>
+      <c r="M3" s="266"/>
+      <c r="N3" s="266"/>
+      <c r="O3" s="266"/>
+      <c r="P3" s="266"/>
+      <c r="Q3" s="266"/>
+      <c r="R3" s="267"/>
       <c r="T3" s="109"/>
       <c r="U3" s="110"/>
       <c r="V3" s="110"/>
@@ -5573,55 +5573,55 @@
       <c r="Y3" s="111"/>
     </row>
     <row r="4" spans="1:25" s="111" customFormat="1">
-      <c r="A4" s="265" t="s">
+      <c r="A4" s="255" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="267" t="s">
+      <c r="B4" s="257" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="267" t="s">
+      <c r="C4" s="257" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="261" t="s">
+      <c r="D4" s="259" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="261" t="s">
+      <c r="E4" s="259" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="261" t="s">
+      <c r="F4" s="259" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="261" t="s">
+      <c r="G4" s="259" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="261" t="s">
+      <c r="H4" s="259" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="261" t="s">
+      <c r="I4" s="259" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="261" t="s">
+      <c r="J4" s="259" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="276" t="s">
+      <c r="K4" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="253" t="s">
+      <c r="L4" s="270" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="255" t="s">
+      <c r="M4" s="272" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="257" t="s">
+      <c r="N4" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="259" t="s">
+      <c r="O4" s="276" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="269" t="s">
+      <c r="P4" s="261" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="271" t="s">
+      <c r="Q4" s="263" t="s">
         <v>41</v>
       </c>
       <c r="R4" s="112" t="s">
@@ -5634,23 +5634,23 @@
       <c r="X4" s="110"/>
     </row>
     <row r="5" spans="1:25" s="111" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="266"/>
-      <c r="B5" s="268"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="262"/>
-      <c r="G5" s="262"/>
-      <c r="H5" s="262"/>
-      <c r="I5" s="262"/>
-      <c r="J5" s="262"/>
-      <c r="K5" s="277"/>
-      <c r="L5" s="254"/>
-      <c r="M5" s="256"/>
-      <c r="N5" s="258"/>
-      <c r="O5" s="260"/>
-      <c r="P5" s="270"/>
-      <c r="Q5" s="272"/>
+      <c r="A5" s="256"/>
+      <c r="B5" s="258"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="260"/>
+      <c r="E5" s="260"/>
+      <c r="F5" s="260"/>
+      <c r="G5" s="260"/>
+      <c r="H5" s="260"/>
+      <c r="I5" s="260"/>
+      <c r="J5" s="260"/>
+      <c r="K5" s="269"/>
+      <c r="L5" s="271"/>
+      <c r="M5" s="273"/>
+      <c r="N5" s="275"/>
+      <c r="O5" s="277"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="264"/>
       <c r="R5" s="114" t="s">
         <v>43</v>
       </c>
@@ -8634,6 +8634,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -8650,10 +8654,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -10483,8 +10483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R167"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10753,15 +10753,16 @@
       <c r="L9" s="201"/>
       <c r="M9" s="202"/>
       <c r="N9" s="224">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="O9" s="224">
         <v>10</v>
       </c>
       <c r="P9" s="224">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="201"/>
+      <c r="R9" s="161"/>
     </row>
     <row r="10" spans="1:18" ht="18" customHeight="1">
       <c r="A10" s="225">
@@ -11257,7 +11258,7 @@
       </c>
       <c r="N28" s="179">
         <f>SUM(N7:N27)</f>
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="O28" s="179">
         <f>SUM(O7:O27)</f>
@@ -11265,7 +11266,7 @@
       </c>
       <c r="P28" s="179">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="Q28" s="180"/>
     </row>
